--- a/label_info_120.xlsx
+++ b/label_info_120.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauth\OneDrive\Bureau\TPS\PRT_PFE\Datasets\test_03-20-2024\test_03-20-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauth\OneDrive\Bureau\TPS\PRT_PFE\RASCoPy\RASCoPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A139134F-E82E-45D3-849E-7017DCCACB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8BA6F-D2F9-4E21-9A41-E439A147354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="label_info" sheetId="1" r:id="rId1"/>
-    <sheet name="remarks" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>vidname</t>
   </si>
@@ -40,18 +47,303 @@
     <t>patientid</t>
   </si>
   <si>
+    <t>vid0130_0155</t>
+  </si>
+  <si>
+    <t>vid0091_0088</t>
+  </si>
+  <si>
+    <t>vid0118_0131</t>
+  </si>
+  <si>
+    <t>vid0109_0118</t>
+  </si>
+  <si>
+    <t>vid0129_0153</t>
+  </si>
+  <si>
+    <t>vid0084_0074</t>
+  </si>
+  <si>
+    <t>vid0089_0084</t>
+  </si>
+  <si>
+    <t>vid0137_0169</t>
+  </si>
+  <si>
+    <t>vid0078_0064</t>
+  </si>
+  <si>
+    <t>vid0109_0117</t>
+  </si>
+  <si>
+    <t>vid0102_0103</t>
+  </si>
+  <si>
+    <t>vid0078_0063b</t>
+  </si>
+  <si>
+    <t>vid0150_0191</t>
+  </si>
+  <si>
+    <t>vid0107_0113</t>
+  </si>
+  <si>
+    <t>vid0090_0085</t>
+  </si>
+  <si>
+    <t>vid0141_0175</t>
+  </si>
+  <si>
+    <t>vid0106_0112</t>
+  </si>
+  <si>
+    <t>vid0079_0066b</t>
+  </si>
+  <si>
+    <t>vid0131_0157</t>
+  </si>
+  <si>
+    <t>vid0133_0161</t>
+  </si>
+  <si>
+    <t>vid0108_0115</t>
+  </si>
+  <si>
+    <t>vid0142_0177</t>
+  </si>
+  <si>
+    <t>vid0077_0061</t>
+  </si>
+  <si>
+    <t>vid0101_0102</t>
+  </si>
+  <si>
+    <t>vid0078_0064b</t>
+  </si>
+  <si>
+    <t>vid0151_0194</t>
+  </si>
+  <si>
+    <t>vid0133_0162</t>
+  </si>
+  <si>
+    <t>vid0079_0066</t>
+  </si>
+  <si>
+    <t>vid0129_0154</t>
+  </si>
+  <si>
+    <t>vid0106_0111</t>
+  </si>
+  <si>
+    <t>vid0089_0083</t>
+  </si>
+  <si>
+    <t>vid0102_0104</t>
+  </si>
+  <si>
+    <t>vid0092_0090</t>
+  </si>
+  <si>
+    <t>vid0079_0065</t>
+  </si>
+  <si>
+    <t>vid0103_0106</t>
+  </si>
+  <si>
+    <t>vid0110_0120</t>
+  </si>
+  <si>
+    <t>vid0139_0173</t>
+  </si>
+  <si>
+    <t>vid0083_0071</t>
+  </si>
+  <si>
+    <t>vid0101_0101</t>
+  </si>
+  <si>
+    <t>vid0111_0122</t>
+  </si>
+  <si>
+    <t>vid0118_0132</t>
+  </si>
+  <si>
+    <t>vid0138_0172</t>
+  </si>
+  <si>
+    <t>vid0079_0065b</t>
+  </si>
+  <si>
+    <t>vid0113_0126</t>
+  </si>
+  <si>
+    <t>OAW01-bottomA1</t>
+  </si>
+  <si>
     <t>vid0073_0055</t>
   </si>
   <si>
     <t>vid0073_0151</t>
   </si>
   <si>
+    <t>vid0105_0109</t>
+  </si>
+  <si>
+    <t>vid0113_0125</t>
+  </si>
+  <si>
+    <t>vid0117_0129</t>
+  </si>
+  <si>
+    <t>vid0117_0130</t>
+  </si>
+  <si>
+    <t>vid0130_0156</t>
+  </si>
+  <si>
+    <t>vid0131_0158</t>
+  </si>
+  <si>
+    <t>vid0135_0165</t>
+  </si>
+  <si>
+    <t>vid0136_0167</t>
+  </si>
+  <si>
+    <t>vid0139_0174</t>
+  </si>
+  <si>
+    <t>vid0141_0176</t>
+  </si>
+  <si>
+    <t>vid0149_0189</t>
+  </si>
+  <si>
+    <t>vid0149_0190</t>
+  </si>
+  <si>
+    <t>OAW01-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW01-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW01-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW01-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW02-bottomA1</t>
+  </si>
+  <si>
+    <t>OAW02-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW02-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW02-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW02-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW04-bottomA1</t>
+  </si>
+  <si>
+    <t>OAW04-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW04-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW04-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW04-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW04-bottomB3</t>
+  </si>
+  <si>
+    <t>OAW05-bottomA1</t>
+  </si>
+  <si>
+    <t>OAW05-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW05-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW05-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW05-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW05-bottomB3</t>
+  </si>
+  <si>
+    <t>OAW08-bottomA1</t>
+  </si>
+  <si>
+    <t>OAW08-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW08-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW08-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW08-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW08-bottomB3</t>
+  </si>
+  <si>
+    <t>OAW09-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW09-bottomA1</t>
+  </si>
+  <si>
+    <t>OAW09-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW09-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW09-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW09-bottomB3</t>
+  </si>
+  <si>
+    <t>OAW10-bottomA1</t>
+  </si>
+  <si>
+    <t>OAW10-bottomA2</t>
+  </si>
+  <si>
+    <t>OAW10-bottomA3</t>
+  </si>
+  <si>
+    <t>OAW10-bottomB1</t>
+  </si>
+  <si>
+    <t>OAW10-bottomB2</t>
+  </si>
+  <si>
+    <t>OAW10-bottomB3</t>
+  </si>
+  <si>
     <t>vid0073_0152</t>
   </si>
   <si>
-    <t>vid0077_0061</t>
-  </si>
-  <si>
     <t>vid0077_0061b</t>
   </si>
   <si>
@@ -61,427 +353,94 @@
     <t>vid0077_0062b</t>
   </si>
   <si>
+    <t>vid0083_0072</t>
+  </si>
+  <si>
+    <t>vid0084_0073</t>
+  </si>
+  <si>
+    <t>vid0091_0087</t>
+  </si>
+  <si>
+    <t>vid0099_0097</t>
+  </si>
+  <si>
+    <t>vid0104_0108</t>
+  </si>
+  <si>
+    <t>vid0105_0110</t>
+  </si>
+  <si>
+    <t>vid0107_0114</t>
+  </si>
+  <si>
+    <t>vid0110_0119</t>
+  </si>
+  <si>
+    <t>vid0119_0133</t>
+  </si>
+  <si>
+    <t>vid0119_0134</t>
+  </si>
+  <si>
+    <t>vid0132_0159</t>
+  </si>
+  <si>
+    <t>vid0132_0160</t>
+  </si>
+  <si>
+    <t>vid0136_0168</t>
+  </si>
+  <si>
+    <t>vid0137_0170</t>
+  </si>
+  <si>
+    <t>vid0138_0171</t>
+  </si>
+  <si>
+    <t>vid0143_0179</t>
+  </si>
+  <si>
+    <t>vid0151_0193</t>
+  </si>
+  <si>
+    <t>vid0085_0075</t>
+  </si>
+  <si>
+    <t>vid0090_0086</t>
+  </si>
+  <si>
+    <t>vid0092_0089</t>
+  </si>
+  <si>
+    <t>vid0103_0105</t>
+  </si>
+  <si>
+    <t>vid0104_0107</t>
+  </si>
+  <si>
+    <t>vid0135_0166</t>
+  </si>
+  <si>
+    <t>vid0142_0178</t>
+  </si>
+  <si>
+    <t>vid0143_0180</t>
+  </si>
+  <si>
+    <t>vid0150_0192</t>
+  </si>
+  <si>
+    <t>vid0111_0121</t>
+  </si>
+  <si>
     <t>vid0078_0063</t>
   </si>
   <si>
-    <t>vid0078_0063b</t>
-  </si>
-  <si>
-    <t>vid0078_0064</t>
-  </si>
-  <si>
-    <t>vid0078_0064b</t>
-  </si>
-  <si>
-    <t>vid0079_0065</t>
-  </si>
-  <si>
-    <t>vid0079_0065b</t>
-  </si>
-  <si>
-    <t>vid0079_0066</t>
-  </si>
-  <si>
-    <t>vid0079_0066b</t>
-  </si>
-  <si>
-    <t>vid0083_0071</t>
-  </si>
-  <si>
-    <t>vid0083_0072</t>
-  </si>
-  <si>
-    <t>vid0084_0073</t>
-  </si>
-  <si>
-    <t>vid0084_0074</t>
-  </si>
-  <si>
-    <t>vid0085_0075</t>
-  </si>
-  <si>
     <t>vid0085_0076</t>
   </si>
   <si>
-    <t>vid0089_0083</t>
-  </si>
-  <si>
-    <t>vid0089_0084</t>
-  </si>
-  <si>
-    <t>vid0090_0085</t>
-  </si>
-  <si>
-    <t>vid0090_0086</t>
-  </si>
-  <si>
-    <t>vid0091_0087</t>
-  </si>
-  <si>
-    <t>vid0091_0088</t>
-  </si>
-  <si>
-    <t>vid0092_0089</t>
-  </si>
-  <si>
-    <t>vid0092_0090</t>
-  </si>
-  <si>
-    <t>vid0099_0097</t>
-  </si>
-  <si>
-    <t>vid0101_0101</t>
-  </si>
-  <si>
-    <t>vid0101_0102</t>
-  </si>
-  <si>
-    <t>vid0102_0103</t>
-  </si>
-  <si>
-    <t>vid0102_0104</t>
-  </si>
-  <si>
-    <t>vid0103_0105</t>
-  </si>
-  <si>
-    <t>vid0103_0106</t>
-  </si>
-  <si>
-    <t>vid0104_0107</t>
-  </si>
-  <si>
-    <t>vid0104_0108</t>
-  </si>
-  <si>
-    <t>vid0105_0109</t>
-  </si>
-  <si>
-    <t>vid0105_0110</t>
-  </si>
-  <si>
-    <t>vid0106_0111</t>
-  </si>
-  <si>
-    <t>vid0106_0112</t>
-  </si>
-  <si>
-    <t>vid0107_0113</t>
-  </si>
-  <si>
-    <t>vid0107_0114</t>
-  </si>
-  <si>
-    <t>vid0108_0115</t>
-  </si>
-  <si>
     <t>vid0108_0116</t>
-  </si>
-  <si>
-    <t>vid0109_0117</t>
-  </si>
-  <si>
-    <t>vid0109_0118</t>
-  </si>
-  <si>
-    <t>vid0110_0119</t>
-  </si>
-  <si>
-    <t>vid0110_0120</t>
-  </si>
-  <si>
-    <t>vid0111_0121</t>
-  </si>
-  <si>
-    <t>vid0111_0122</t>
-  </si>
-  <si>
-    <t>vid0113_0125</t>
-  </si>
-  <si>
-    <t>vid0113_0126</t>
-  </si>
-  <si>
-    <t>vid0117_0129</t>
-  </si>
-  <si>
-    <t>vid0117_0130</t>
-  </si>
-  <si>
-    <t>vid0118_0131</t>
-  </si>
-  <si>
-    <t>vid0118_0132</t>
-  </si>
-  <si>
-    <t>vid0119_0133</t>
-  </si>
-  <si>
-    <t>vid0119_0134</t>
-  </si>
-  <si>
-    <t>vid0129_0153</t>
-  </si>
-  <si>
-    <t>vid0129_0154</t>
-  </si>
-  <si>
-    <t>vid0130_0155</t>
-  </si>
-  <si>
-    <t>vid0130_0156</t>
-  </si>
-  <si>
-    <t>vid0131_0157</t>
-  </si>
-  <si>
-    <t>vid0131_0158</t>
-  </si>
-  <si>
-    <t>vid0132_0159</t>
-  </si>
-  <si>
-    <t>vid0132_0160</t>
-  </si>
-  <si>
-    <t>vid0133_0161</t>
-  </si>
-  <si>
-    <t>vid0133_0162</t>
-  </si>
-  <si>
-    <t>vid0135_0165</t>
-  </si>
-  <si>
-    <t>vid0135_0166</t>
-  </si>
-  <si>
-    <t>vid0136_0167</t>
-  </si>
-  <si>
-    <t>vid0136_0168</t>
-  </si>
-  <si>
-    <t>vid0137_0169</t>
-  </si>
-  <si>
-    <t>vid0137_0170</t>
-  </si>
-  <si>
-    <t>vid0138_0171</t>
-  </si>
-  <si>
-    <t>vid0138_0172</t>
-  </si>
-  <si>
-    <t>vid0139_0173</t>
-  </si>
-  <si>
-    <t>vid0139_0174</t>
-  </si>
-  <si>
-    <t>vid0141_0175</t>
-  </si>
-  <si>
-    <t>vid0141_0176</t>
-  </si>
-  <si>
-    <t>vid0142_0177</t>
-  </si>
-  <si>
-    <t>vid0142_0178</t>
-  </si>
-  <si>
-    <t>vid0143_0179</t>
-  </si>
-  <si>
-    <t>vid0143_0180</t>
-  </si>
-  <si>
-    <t>vid0149_0189</t>
-  </si>
-  <si>
-    <t>vid0149_0190</t>
-  </si>
-  <si>
-    <t>vid0150_0191</t>
-  </si>
-  <si>
-    <t>vid0150_0192</t>
-  </si>
-  <si>
-    <t>vid0151_0193</t>
-  </si>
-  <si>
-    <t>vid0151_0194</t>
-  </si>
-  <si>
-    <t>OAW01-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW01-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW01-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW01-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW01-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW02-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW02-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW02-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW02-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW02-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW04-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW04-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW04-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW04-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW04-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW04-bottomB3</t>
-  </si>
-  <si>
-    <t>OAW05-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW05-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW05-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW05-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW05-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW05-bottomB3</t>
-  </si>
-  <si>
-    <t>OAW08-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW08-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW08-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW08-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW08-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW08-bottomB3</t>
-  </si>
-  <si>
-    <t>OAW09-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW09-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW09-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW09-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW09-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW09-bottomB3</t>
-  </si>
-  <si>
-    <t>OAW10-bottomA1</t>
-  </si>
-  <si>
-    <t>OAW10-bottomA2</t>
-  </si>
-  <si>
-    <t>OAW10-bottomA3</t>
-  </si>
-  <si>
-    <t>OAW10-bottomB1</t>
-  </si>
-  <si>
-    <t>OAW10-bottomB2</t>
-  </si>
-  <si>
-    <t>OAW10-bottomB3</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>MDS-UPDRS Gait III</t>
-  </si>
-  <si>
-    <t>Normal: No problems.</t>
-  </si>
-  <si>
-    <t>Slight: Independent walking with minor gait impairment.</t>
-  </si>
-  <si>
-    <t>Mild: Independent walking but with substantial gait impairment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate: Requires an assistance device for safe walking (walking stick, walker) but not a person. </t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
-    <t>Healthy</t>
-  </si>
-  <si>
-    <t>Mild Dementia with Lewy Bodies</t>
-  </si>
-  <si>
-    <t>Mild Alzheimer’s Disease</t>
-  </si>
-  <si>
-    <t>Severe Dementia with Lewy Bodies</t>
-  </si>
-  <si>
-    <t>Severe Alzheimer’s Disease</t>
-  </si>
-  <si>
-    <t>Multiple video clips may belong to the same elderly.</t>
   </si>
 </sst>
 </file>
@@ -491,18 +450,16 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,12 +497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -553,7 +507,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -566,7 +520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,44 +530,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -640,32 +594,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -692,24 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,181 +639,185 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,98 +830,94 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1008,82 +926,82 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>44</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>45</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1092,12 +1010,12 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1106,82 +1024,82 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1190,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,43 +1161,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1288,12 +1206,12 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1302,12 +1220,12 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1316,12 +1234,12 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1330,12 +1248,12 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1344,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1358,12 +1276,12 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1372,12 +1290,12 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1386,12 +1304,12 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1400,12 +1318,12 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1414,12 +1332,12 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1428,12 +1346,12 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1442,12 +1360,12 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1456,12 +1374,12 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1470,460 +1388,460 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1932,12 +1850,12 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1946,138 +1864,138 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2086,40 +2004,40 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2128,12 +2046,12 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2147,21 +2065,21 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2175,231 +2093,231 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2408,21 +2326,21 @@
         <v>4</v>
       </c>
       <c r="D108">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,130 +2348,130 @@
         <v>23</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -2567,335 +2485,204 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D133">
-    <sortCondition ref="B1:B133"/>
+    <sortCondition ref="A2:A133"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>